--- a/LaTex_Projects/Masterthes/samtools_flagstat.xlsx
+++ b/LaTex_Projects/Masterthes/samtools_flagstat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="163" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="224" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="27">
   <si>
     <t>Haloplex</t>
   </si>
@@ -94,6 +94,9 @@
   <si>
     <t>15027722_S10</t>
   </si>
+  <si>
+    <t>Velona</t>
+  </si>
 </sst>
 </file>
 
@@ -107,6 +110,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -188,10 +192,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M53" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R65" activeCellId="0" sqref="R65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3072,6 +3076,1031 @@
       <c r="S54" s="0" t="n">
         <f aca="false">AVERAGE(B54:R54)</f>
         <v>3.07647058823529</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="n">
+        <v>15001181</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>15010800</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>15016513</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>15018040</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>15020056</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>15028422</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>15038519</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>15039121</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>15039718</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>15051669</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>15061857</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>16004596</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>16009521</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>16012404</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>16012453</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <f aca="false">AVERAGE(S44,S62)</f>
+        <v>3548001.91176471</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>2259683</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>934579</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>2151333</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>3152289</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>2084823</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>2069080</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>1216637</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>3793196</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>2312766</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>1807593</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>1235892</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>3670059</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>4094517</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>4150524</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>2490216</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>5104258</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>4503168</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <f aca="false">AVERAGE(B57:R57)</f>
+        <v>2766506.64705882</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <f aca="false">AVERAGE(B58:R58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <f aca="false">AVERAGE(B59:R59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <f aca="false">AVERAGE(B60:R60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>1851052</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>747839</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>1985310</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>2460710</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>1946054</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>1937199</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>1181153</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>3540858</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>2175301</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>1518294</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>1189603</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>3181025</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>3851861</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>4024899</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>2328074</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>4927490</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>4326393</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <f aca="false">AVERAGE(B61:R61)</f>
+        <v>2539595</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>2259683</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>934579</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>2151333</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>3152289</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>2084823</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>2069080</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>1216637</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>3793196</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>2312766</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>1807593</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>1236892</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>3670059</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>4094517</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>4150524</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>2490216</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>5104258</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>4503168</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <f aca="false">AVERAGE(B62:R62)</f>
+        <v>2766565.47058823</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>1130776</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>467688</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>1077044</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>1577979</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>1044252</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>1036011</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>608696</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>1899154</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>1158060</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>904790</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>618715</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>1838123</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>2050724</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>2078295</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>1246461</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <v>2554519</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>2253261</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <f aca="false">AVERAGE(B63:R63)</f>
+        <v>1384973.41176471</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>1128907</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>466891</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>1074289</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>1577979</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>1040571</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>1033069</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>607941</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>1894042</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>1154706</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>902803</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>617177</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>1831936</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>2043793</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>2072229</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>1243755</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <v>2549739</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>2249907</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <f aca="false">AVERAGE(B64:R64)</f>
+        <v>1381749.05882353</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>1706874</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>741528</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>1941844</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>2432445</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>1894293</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>1879317</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>1177001</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>3485945</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>2119726</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>1483777</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>939678</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>3100899</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>3762868</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>3942991</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>2279743</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <v>4826387</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>4232514</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <f aca="false">AVERAGE(B65:R65)</f>
+        <v>2467519.41176471</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>1843199</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>745177</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>1979260</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>2441972</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>1940404</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>1931511</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>1177939</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>3528034</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>2169089</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>1512890</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>1186095</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>3165179</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>3838423</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>4013410</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>2321234</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <v>4913628</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>4314132</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <f aca="false">AVERAGE(B66:R66)</f>
+        <v>2530680.94117647</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>7853</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2662</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>6050</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>18738</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>5650</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>5688</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>3216</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>12824</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>6212</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>5404</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>3508</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>15846</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>13438</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>11489</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>6840</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <v>13862</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>12263</v>
+      </c>
+      <c r="S67" s="0" t="n">
+        <f aca="false">AVERAGE(B67:R67)</f>
+        <v>8914.29411764706</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>25514</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1480</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>3754</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>5821</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>4906</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>4168</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>1617</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>7952</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>4634</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>3218</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>35230</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>8879</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>9612</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>7799</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>3985</v>
+      </c>
+      <c r="Q68" s="0" t="n">
+        <v>7193</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <v>5528</v>
+      </c>
+      <c r="S68" s="0" t="n">
+        <f aca="false">AVERAGE(B68:R68)</f>
+        <v>8311.17647058824</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>22198</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>590</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>1655</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>2309</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>2064</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>1720</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>945</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>2998</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>2029</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>1429</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>32493</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>3439</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <v>3633</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>3931</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>1762</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <v>3716</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>2820</v>
+      </c>
+      <c r="S69" s="0" t="n">
+        <f aca="false">AVERAGE(B69:R69)</f>
+        <v>5278.29411764706</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>81.92</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>80.02</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>92.28</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>78.06</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>92.34</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>93.63</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>93.35</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>94.06</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>95.25</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>86.68</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <v>94.07</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <v>93.49</v>
+      </c>
+      <c r="Q70" s="0" t="n">
+        <v>96.54</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <v>96.07</v>
+      </c>
+      <c r="S70" s="0" t="n">
+        <f aca="false">AVERAGE(B70:R70)</f>
+        <v>90.93</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>75.54</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>79.34</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>90.26</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>77.16</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>90.86</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>90.83</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>96.74</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>91.9</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>91.65</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>82.09</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>76.03</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>84.49</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>91.9</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>91.55</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <v>94.56</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>93.99</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <f aca="false">AVERAGE(B71:R71)</f>
+        <v>87.8758823529412</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Q72" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S72" s="0" t="n">
+        <f aca="false">AVERAGE(B72:R72)</f>
+        <v>0.314117647058823</v>
       </c>
     </row>
   </sheetData>
